--- a/config_6.29/game_enter_btn_config.xlsx
+++ b/config_6.29/game_enter_btn_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="28"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="377">
   <si>
     <t>id|行号</t>
   </si>
@@ -213,7 +213,7 @@
     <t>|内容</t>
   </si>
   <si>
-    <t>3;116#2#139#8#122#61#140#137#9#117#134#141#138#142#</t>
+    <t>3;116#2#139#8#122#61#140#137#9#117#134#141#138#142#143#</t>
   </si>
   <si>
     <t>left</t>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>124#</t>
-  </si>
-  <si>
-    <t>限时红包</t>
   </si>
   <si>
     <t>26#18#</t>
@@ -1333,16 +1330,25 @@
   <si>
     <t>actp_own_task_p_txz</t>
   </si>
+  <si>
+    <t>限时红包</t>
+  </si>
+  <si>
+    <t>"act_027_qyzl",</t>
+  </si>
+  <si>
+    <t>七月赠礼</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1391,36 +1397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1435,6 +1413,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1443,6 +1436,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1458,78 +1531,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1582,25 +1588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,19 +1600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,13 +1624,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,13 +1654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,31 +1678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,7 +1690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,7 +1702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,7 +1714,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,7 +1750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,6 +1800,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1809,11 +1833,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1835,44 +1865,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1884,10 +1890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1896,139 +1902,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2075,6 +2081,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2442,12 +2451,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2462,57 +2471,57 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2534,12 +2543,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2554,14 +2563,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>54</v>
+      <c r="C2" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2598,25 +2607,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>55</v>
+      <c r="C2" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2647,14 +2656,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>56</v>
+      <c r="C2" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2674,12 +2683,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2694,25 +2703,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2748,18 +2757,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>58</v>
+      <c r="C2" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2790,25 +2799,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2828,12 +2837,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2848,14 +2857,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
+      <c r="C2" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2876,12 +2885,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2896,14 +2905,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>60</v>
+      <c r="C2" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2939,14 +2948,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>61</v>
+      <c r="C2" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2982,96 +2991,96 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="17">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3092,12 +3101,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -3112,61 +3121,61 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="15"/>
     <row r="18" ht="15.75" spans="10:10">
-      <c r="J18" s="27"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" ht="15"/>
   </sheetData>
@@ -3202,18 +3211,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>76</v>
+      <c r="C2" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3221,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3234,7 +3243,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3242,10 +3251,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3253,10 +3262,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3264,10 +3273,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3275,10 +3284,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -3286,7 +3295,7 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="3:3">
@@ -3322,14 +3331,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>87</v>
+      <c r="C2" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3361,13 +3370,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3400,13 +3409,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3440,13 +3449,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3482,29 +3491,29 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="20">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3550,7 +3559,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3589,10 +3598,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3634,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3652,14 +3661,14 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D143" sqref="D143"/>
+      <selection pane="bottomRight" activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3675,22 +3684,22 @@
   <sheetData>
     <row r="1" ht="34.5" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3698,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3708,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3716,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -3726,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3734,19 +3743,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3754,7 +3763,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3764,7 +3773,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3772,7 +3781,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3782,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3790,7 +3799,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3800,7 +3809,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3808,7 +3817,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3818,7 +3827,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3826,7 +3835,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -3836,7 +3845,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3844,7 +3853,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3854,7 +3863,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3862,7 +3871,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3872,7 +3881,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3880,7 +3889,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3890,7 +3899,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3898,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3908,7 +3917,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3916,7 +3925,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3926,7 +3935,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3934,7 +3943,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3944,7 +3953,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3952,7 +3961,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3962,7 +3971,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3970,7 +3979,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3980,7 +3989,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3988,7 +3997,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3998,7 +4007,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4006,7 +4015,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -4016,7 +4025,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4024,7 +4033,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -4034,7 +4043,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4042,7 +4051,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -4052,7 +4061,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4060,7 +4069,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -4070,7 +4079,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4078,7 +4087,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -4088,7 +4097,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4096,7 +4105,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -4106,7 +4115,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4114,7 +4123,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -4124,7 +4133,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4132,7 +4141,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -4142,7 +4151,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4150,7 +4159,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -4160,7 +4169,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4168,7 +4177,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -4178,7 +4187,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4186,7 +4195,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -4196,7 +4205,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4204,7 +4213,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -4214,7 +4223,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4222,7 +4231,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -4232,7 +4241,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4240,7 +4249,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -4250,7 +4259,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4258,7 +4267,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -4268,7 +4277,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4276,7 +4285,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -4286,7 +4295,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4294,7 +4303,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -4304,7 +4313,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4312,7 +4321,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -4322,7 +4331,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4330,7 +4339,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -4340,7 +4349,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4348,7 +4357,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -4358,7 +4367,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4366,7 +4375,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -4376,7 +4385,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4384,7 +4393,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -4394,7 +4403,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4402,7 +4411,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -4412,7 +4421,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4420,7 +4429,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4429,7 +4438,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4437,7 +4446,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4446,7 +4455,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4454,7 +4463,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4463,7 +4472,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4471,7 +4480,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4480,7 +4489,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4488,7 +4497,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4497,7 +4506,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4505,7 +4514,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4514,7 +4523,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4522,7 +4531,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4531,7 +4540,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4539,7 +4548,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4548,7 +4557,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4556,7 +4565,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4565,7 +4574,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4573,7 +4582,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4582,7 +4591,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4590,7 +4599,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4599,7 +4608,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4607,7 +4616,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4616,7 +4625,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4624,7 +4633,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4634,7 +4643,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4642,7 +4651,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4651,7 +4660,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4659,7 +4668,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4668,7 +4677,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4676,7 +4685,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4685,7 +4694,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4693,7 +4702,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4702,7 +4711,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4710,7 +4719,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4719,7 +4728,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4727,7 +4736,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4736,7 +4745,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4744,7 +4753,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4753,7 +4762,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4761,7 +4770,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4770,7 +4779,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4778,7 +4787,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4787,7 +4796,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4795,7 +4804,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4804,7 +4813,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4812,7 +4821,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4821,7 +4830,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4829,7 +4838,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4838,7 +4847,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4846,7 +4855,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4855,7 +4864,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4863,7 +4872,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4872,7 +4881,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4880,7 +4889,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4889,7 +4898,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4897,7 +4906,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4906,7 +4915,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4914,7 +4923,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4923,7 +4932,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4931,7 +4940,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4940,7 +4949,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4948,7 +4957,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4957,7 +4966,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4965,7 +4974,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4974,7 +4983,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4982,7 +4991,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4991,7 +5000,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4999,7 +5008,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5008,7 +5017,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5016,7 +5025,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -5025,7 +5034,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5033,7 +5042,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -5042,7 +5051,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5050,7 +5059,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -5059,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5067,7 +5076,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5076,7 +5085,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5084,7 +5093,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5093,7 +5102,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5101,7 +5110,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5110,7 +5119,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5118,7 +5127,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5127,7 +5136,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5135,7 +5144,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5144,7 +5153,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5152,7 +5161,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5161,7 +5170,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5169,7 +5178,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5178,7 +5187,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5186,7 +5195,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5195,7 +5204,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5203,19 +5212,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5223,7 +5232,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5232,7 +5241,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5240,7 +5249,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5249,7 +5258,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5257,7 +5266,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5266,7 +5275,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5274,7 +5283,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5283,7 +5292,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5291,7 +5300,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5300,7 +5309,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5308,7 +5317,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5317,7 +5326,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5325,7 +5334,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5334,7 +5343,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5342,7 +5351,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5351,7 +5360,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5359,7 +5368,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5368,7 +5377,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5376,7 +5385,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5386,7 +5395,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5394,7 +5403,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5403,7 +5412,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5411,7 +5420,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5420,7 +5429,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5428,7 +5437,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5437,7 +5446,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5445,19 +5454,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:6">
@@ -5465,7 +5474,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5474,7 +5483,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5482,7 +5491,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5491,7 +5500,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" s="2" customFormat="1" spans="1:6">
@@ -5499,7 +5508,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -5508,7 +5517,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5516,19 +5525,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5536,7 +5545,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5545,7 +5554,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5553,7 +5562,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5562,7 +5571,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" ht="16.5" spans="1:6">
@@ -5570,7 +5579,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5579,7 +5588,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5587,7 +5596,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5596,7 +5605,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5604,7 +5613,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5613,7 +5622,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5621,7 +5630,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5630,7 +5639,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5638,7 +5647,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5647,7 +5656,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5655,7 +5664,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5664,7 +5673,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5672,7 +5681,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5681,7 +5690,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5689,19 +5698,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5709,19 +5718,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" ht="16.5" spans="1:6">
@@ -5729,7 +5738,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5738,7 +5747,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5746,7 +5755,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5755,7 +5764,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5763,7 +5772,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5772,7 +5781,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5780,7 +5789,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5789,7 +5798,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5797,7 +5806,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5806,7 +5815,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5814,7 +5823,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5823,7 +5832,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5831,7 +5840,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5840,7 +5849,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5848,7 +5857,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5857,7 +5866,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5865,7 +5874,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5874,7 +5883,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5882,7 +5891,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5891,7 +5900,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5899,7 +5908,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5908,7 +5917,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5916,19 +5925,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5936,19 +5945,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5956,19 +5965,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5976,19 +5985,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5996,7 +6005,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -6005,7 +6014,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6013,7 +6022,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -6022,7 +6031,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135" ht="16.5" spans="1:6">
@@ -6030,19 +6039,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6050,19 +6059,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6070,19 +6079,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="138" ht="15.75" spans="1:6">
@@ -6090,19 +6099,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
         <v>365</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>366</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" ht="15.75" spans="1:6">
@@ -6110,19 +6119,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6130,7 +6139,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -6140,7 +6149,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" ht="15.75" spans="1:6">
@@ -6148,19 +6157,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="142" ht="15.75" spans="1:6">
@@ -6168,19 +6177,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" ht="15.75" spans="1:6">
@@ -6188,19 +6197,39 @@
         <v>142</v>
       </c>
       <c r="B143" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
         <v>373</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143" t="s">
-        <v>374</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>53</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" spans="1:6">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>325</v>
+      </c>
+      <c r="E144">
+        <v>143</v>
+      </c>
+      <c r="F144" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -6237,53 +6266,53 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6304,12 +6333,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6324,55 +6353,55 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6438,7 +6467,7 @@
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" s="24" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6477,12 +6506,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6497,13 +6526,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6537,12 +6566,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6557,44 +6586,44 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6608,20 +6637,20 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="54.875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="60" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:5">
@@ -6642,13 +6671,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="5">
@@ -6661,13 +6690,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="5">
@@ -6684,13 +6713,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5">
@@ -6703,13 +6732,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="5">
@@ -6723,13 +6752,13 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="5">
@@ -6742,13 +6771,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="17">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5">
@@ -6761,13 +6790,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5">
@@ -6780,13 +6809,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="5">
@@ -6799,7 +6828,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
         <v>9</v>
@@ -6810,8 +6839,8 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="5">
         <f>'all_enter|所有按钮入口'!E11</f>
         <v>10</v>
@@ -8135,8 +8164,18 @@
       <c r="D143" s="5">
         <v>142</v>
       </c>
-      <c r="E143" s="23" t="s">
-        <v>53</v>
+      <c r="E143" s="5" t="str">
+        <f>'all_enter|所有按钮入口'!F143</f>
+        <v>限时红包</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5">
+      <c r="D144" s="5">
+        <v>143</v>
+      </c>
+      <c r="E144" s="5" t="str">
+        <f>'all_enter|所有按钮入口'!F144</f>
+        <v>七月赠礼</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.29/game_enter_btn_config.xlsx
+++ b/config_6.29/game_enter_btn_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="5" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -443,7 +443,7 @@
     <t>101;11;93#</t>
   </si>
   <si>
-    <t>132#</t>
+    <t>132#120#</t>
   </si>
   <si>
     <t>all</t>
@@ -1345,8 +1345,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1397,24 +1397,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1428,14 +1419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -1443,8 +1426,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,30 +1442,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1495,21 +1463,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1531,11 +1494,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1588,7 +1588,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,13 +1630,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,103 +1726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,31 +1756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,15 +1804,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1833,17 +1824,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1865,19 +1850,34 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1890,10 +1890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1902,139 +1902,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2081,9 +2081,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2451,12 +2448,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2471,57 +2468,57 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2543,12 +2540,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2563,13 +2560,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2607,25 +2604,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2656,13 +2653,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2683,12 +2680,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2703,24 +2700,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2757,18 +2754,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2799,24 +2796,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2837,12 +2834,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2857,13 +2854,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2885,12 +2882,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2905,13 +2902,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2948,13 +2945,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2995,18 +2992,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3017,7 +3014,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3029,7 +3026,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3040,7 +3037,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -3051,7 +3048,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3062,7 +3059,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3073,7 +3070,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3101,12 +3098,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -3121,61 +3118,61 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="15"/>
     <row r="18" ht="15.75" spans="10:10">
-      <c r="J18" s="28"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" ht="15"/>
   </sheetData>
@@ -3215,13 +3212,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3295,7 +3292,7 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
-      <c r="B10" s="22"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="3:3">
@@ -3331,13 +3328,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3370,13 +3367,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3409,13 +3406,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3449,13 +3446,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3491,29 +3488,29 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3534,8 +3531,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -3668,7 +3665,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A144" sqref="A144"/>
+      <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6216,7 +6213,7 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="16" t="s">
         <v>375</v>
       </c>
       <c r="C144">
@@ -6266,53 +6263,53 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6333,12 +6330,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6353,55 +6350,55 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6467,7 +6464,7 @@
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" s="23" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6506,12 +6503,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6526,13 +6523,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6566,12 +6563,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6586,44 +6583,44 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6639,18 +6636,18 @@
   <sheetPr/>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="60" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="60" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:5">
@@ -6671,13 +6668,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="5">
@@ -6690,13 +6687,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="5">
@@ -6713,13 +6710,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5">
@@ -6732,13 +6729,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="5">
@@ -6752,13 +6749,13 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="5">
@@ -6771,13 +6768,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5">
@@ -6790,13 +6787,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5">
@@ -6809,13 +6806,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="5">
@@ -6828,7 +6825,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
         <v>9</v>
@@ -6839,8 +6836,8 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="5">
         <f>'all_enter|所有按钮入口'!E11</f>
         <v>10</v>

--- a/config_6.29/game_enter_btn_config.xlsx
+++ b/config_6.29/game_enter_btn_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="25"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1280,7 +1280,7 @@
     <t>节日扩展活动（非新玩家）</t>
   </si>
   <si>
-    <t>"act_ty_gifts","gift_hflb","enter",</t>
+    <t>"act_ty_gifts","gift_sxlb","enter",</t>
   </si>
   <si>
     <t>欢乐礼包</t>
@@ -1347,8 +1347,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1405,30 +1405,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1441,8 +1418,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1450,21 +1442,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,15 +1457,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1502,34 +1518,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1588,7 +1588,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,13 +1732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,145 +1744,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,7 +1804,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1833,28 +1848,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1876,8 +1874,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1890,10 +1890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1902,133 +1902,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3531,8 +3531,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -3660,12 +3660,12 @@
   <sheetPr/>
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
+      <selection pane="bottomRight" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
